--- a/20200106～20200108作業内容.xlsx
+++ b/20200106～20200108作業内容.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\BackDoor\GitHub\backdoor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1E5BAD-FF54-4F92-91BF-015DE8128A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0E4038-7D64-4D85-9993-67784E0029C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>VS，GitHub，SVN等安装</t>
     <phoneticPr fontId="2"/>
@@ -51,68 +51,45 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>K13A_当日詳細実績参照</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>高さん⇒開発作業：</t>
+    <t>格納先：</t>
+    <rPh sb="0" eb="2">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GitHub\backdoor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詹さん、高さん、呂さん：</t>
     <rPh sb="0" eb="1">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>コウ</t>
     </rPh>
-    <rPh sb="4" eb="6">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>K-14_前日以前実績参照</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Z-01A_入出庫来歴照会</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>K13と1セット</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Z01と１セット</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Z01_在庫照会</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>呂さん⇒単体テスト（テスト実施）：</t>
-    <rPh sb="0" eb="1">
+    <rPh sb="8" eb="9">
       <t>ロ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>呂さん⇒単体テスト（仕様書作成）：</t>
-    <rPh sb="0" eb="1">
-      <t>ロ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -145,7 +122,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>顺序，进行作业内容熟悉。</t>
+      <t>顺序，进行作业内容熟悉及对应。</t>
     </r>
     <rPh sb="7" eb="9">
       <t>カンリ</t>
@@ -156,36 +133,6 @@
     <rPh sb="11" eb="14">
       <t>ナイブヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>格納先：</t>
-    <rPh sb="0" eb="2">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GitHub\backdoor</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>DB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配置</t>
-    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -535,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,12 +491,12 @@
     <col min="1" max="1" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:4">
       <c r="B2" s="1">
         <v>43471</v>
       </c>
@@ -557,76 +504,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:4">
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
+    <row r="9" spans="1:4">
+      <c r="C9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/20200106～20200108作業内容.xlsx
+++ b/20200106～20200108作業内容.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\BackDoor\GitHub\backdoor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0E4038-7D64-4D85-9993-67784E0029C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A31C659-A659-4CAB-8102-6E774B78FC24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9168" yWindow="924" windowWidth="9444" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>VS，GitHub，SVN等安装</t>
     <phoneticPr fontId="2"/>
@@ -132,6 +132,26 @@
     </rPh>
     <rPh sb="11" eb="14">
       <t>ナイブヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本設計書：GitHub\backdoor\01_基本設計書\20200220リリース</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単体テスト仕様書：GitHub\backdoor\04_単体テスト仕様書</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シヨウショ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -482,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,6 +556,16 @@
     <row r="9" spans="1:4">
       <c r="C9" s="3"/>
     </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
